--- a/Occupancy_data.xlsx
+++ b/Occupancy_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlloyd/GitHub/BITH_Maine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlloyd/Documents/GitHub/BITH_Maine/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C58C3FE-EF9B-4449-8453-48FF0EEF340C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="900" windowWidth="21560" windowHeight="15700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13880" yWindow="1480" windowWidth="22500" windowHeight="18300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
   <si>
     <t>stand</t>
   </si>
@@ -217,12 +218,243 @@
   </si>
   <si>
     <t>COYE</t>
+  </si>
+  <si>
+    <t>BCCH</t>
+  </si>
+  <si>
+    <t>locationNa</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_13</t>
+  </si>
+  <si>
+    <t>abbreviate</t>
+  </si>
+  <si>
+    <t>W33L13</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_14</t>
+  </si>
+  <si>
+    <t>W33L14</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_15</t>
+  </si>
+  <si>
+    <t>W33L15</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_16</t>
+  </si>
+  <si>
+    <t>W33L16</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_17</t>
+  </si>
+  <si>
+    <t>W33L17</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_18</t>
+  </si>
+  <si>
+    <t>W33L18</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_19</t>
+  </si>
+  <si>
+    <t>W33L19</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_20</t>
+  </si>
+  <si>
+    <t>W33L20</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_21</t>
+  </si>
+  <si>
+    <t>W33L21</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_22</t>
+  </si>
+  <si>
+    <t>W33L22</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_23</t>
+  </si>
+  <si>
+    <t>W33L23</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_24</t>
+  </si>
+  <si>
+    <t>W33L24</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_25</t>
+  </si>
+  <si>
+    <t>W33L25</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_26</t>
+  </si>
+  <si>
+    <t>W33L26</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_33_Loc_27</t>
+  </si>
+  <si>
+    <t>W33L27</t>
+  </si>
+  <si>
+    <t>S4A01570_20170605_195800</t>
+  </si>
+  <si>
+    <t>S4A01570_20170605_205802</t>
+  </si>
+  <si>
+    <t>S4A01570_20170606_035400</t>
+  </si>
+  <si>
+    <t>S4A01570_20170606_045402</t>
+  </si>
+  <si>
+    <t>S4A01570_20170606_055402</t>
+  </si>
+  <si>
+    <t>S4A01570_20170606_195900</t>
+  </si>
+  <si>
+    <t>S4A01570_20170606_205903</t>
+  </si>
+  <si>
+    <t>S4A01570_20170607_035300</t>
+  </si>
+  <si>
+    <t>S4A01570_20170607_045303</t>
+  </si>
+  <si>
+    <t>S4A01570_20170607_055302</t>
+  </si>
+  <si>
+    <t>S4A01570_20170607_195900</t>
+  </si>
+  <si>
+    <t>S4A01570_20170607_205902</t>
+  </si>
+  <si>
+    <t>S4A01570_20170608_035300</t>
+  </si>
+  <si>
+    <t>S4A01570_20170608_045302</t>
+  </si>
+  <si>
+    <t>S4A01570_20170608_055303</t>
+  </si>
+  <si>
+    <t>ampm</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_34_Loc_10</t>
+  </si>
+  <si>
+    <t>W34L10</t>
+  </si>
+  <si>
+    <t>S4A04310_20170605_202700</t>
+  </si>
+  <si>
+    <t>S4A04310_20170606_042700</t>
+  </si>
+  <si>
+    <t>S4A04310_20170606_202700</t>
+  </si>
+  <si>
+    <t>S4A04310_20170607_042600</t>
+  </si>
+  <si>
+    <t>S4A04310_20170607_202800</t>
+  </si>
+  <si>
+    <t>S4A04310_20170608_042600</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_43_Loc_12</t>
+  </si>
+  <si>
+    <t>W43L12</t>
+  </si>
+  <si>
+    <t>S4A01574_20170604_202600</t>
+  </si>
+  <si>
+    <t>S4A01574_20170605_042700</t>
+  </si>
+  <si>
+    <t>S4A01574_20170605_202700</t>
+  </si>
+  <si>
+    <t>S4A01574_20170606_042700</t>
+  </si>
+  <si>
+    <t>S4A01574_20170606_202700</t>
+  </si>
+  <si>
+    <t>S4A01574_20170607_042600</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_43_Loc_6</t>
+  </si>
+  <si>
+    <t>WS43L6</t>
+  </si>
+  <si>
+    <t>S4A01565_20170605_202700</t>
+  </si>
+  <si>
+    <t>S4A01565_20170606_042700</t>
+  </si>
+  <si>
+    <t>S4A01565_20170606_202700</t>
+  </si>
+  <si>
+    <t>S4A01565_20170607_042600</t>
+  </si>
+  <si>
+    <t>Wagner_Stand_43_Loc_14</t>
+  </si>
+  <si>
+    <t>W43L14</t>
+  </si>
+  <si>
+    <t>S4A04574_20170607_042600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -295,6 +527,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -562,7 +797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -769,146 +1004,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK30" sqref="AK30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO38" sqref="H38:AO38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -923,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -938,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -947,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -956,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -971,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -986,40 +1241,55 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1033,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1048,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1057,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1066,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1081,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1096,40 +1366,55 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1143,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1155,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1167,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1176,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1206,40 +1491,55 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1253,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1265,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1277,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -1286,22 +1586,22 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1316,40 +1616,55 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1363,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1375,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1387,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1396,22 +1711,22 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1429,37 +1744,52 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1473,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1488,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1497,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1506,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1521,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1536,40 +1866,55 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -1646,42 +1991,57 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1705,43 +2065,43 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1750,46 +2110,61 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -1797,79 +2172,79 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -1877,29 +2252,44 @@
       <c r="AJ10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -1913,46 +2303,46 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1961,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1973,48 +2363,63 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2023,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2032,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2050,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2065,61 +2470,76 @@
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -2196,42 +2616,57 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2249,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2276,22 +2711,22 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2300,60 +2735,75 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2362,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2377,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -2386,40 +2836,40 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15">
         <v>1</v>
@@ -2427,31 +2877,46 @@
       <c r="AJ15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2463,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2478,43 +2943,43 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2523,43 +2988,58 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -2570,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2606,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2621,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2636,54 +3116,69 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="G18">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2704,40 +3199,40 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2746,40 +3241,55 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -2787,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2808,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2817,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2826,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2841,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2856,54 +3366,69 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="G20">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2918,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2927,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2951,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2960,16 +3485,16 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>1</v>
@@ -2977,29 +3502,44 @@
       <c r="AJ20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="G21">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -3010,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3025,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3040,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3061,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3076,48 +3616,63 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22">
         <v>8</v>
       </c>
-      <c r="B22">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="G22">
         <v>21</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3138,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3156,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -3171,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3186,40 +3741,55 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23">
         <v>11</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -3233,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -3248,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -3257,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3266,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -3293,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -3302,34 +3872,49 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="B24">
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="G24">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -3343,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3355,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3373,19 +3958,19 @@
         <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -3394,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3412,34 +3997,49 @@
         <v>1</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25">
         <v>11</v>
       </c>
-      <c r="B25">
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="G25">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -3486,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3498,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3513,43 +4113,58 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="G26">
         <v>25</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -3566,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3581,25 +4196,25 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -3617,49 +4232,64 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27">
         <v>11</v>
       </c>
-      <c r="B27">
+      <c r="F27">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="G27">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -3667,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3682,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3697,28 +4327,28 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>1</v>
@@ -3733,43 +4363,58 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>1</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="F28">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="G28">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -3783,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3795,19 +4440,19 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -3819,67 +4464,82 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29">
         <v>9</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>28</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -3893,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3908,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3917,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3926,13 +4586,13 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3941,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3959,39 +4619,54 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="G30">
         <v>29</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4003,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4015,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -4027,60 +4702,475 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="D1:AE22">
-    <sortCondition ref="D1:AE1"/>
+  <sortState columnSort="1" ref="H1:AJ22">
+    <sortCondition ref="H1:AJ1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Occupancy_data.xlsx
+++ b/Occupancy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlloyd/Documents/GitHub/BITH_Maine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C58C3FE-EF9B-4449-8453-48FF0EEF340C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD08D63-AF8A-B44E-AF2D-EB0E5F1AB2C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="1480" windowWidth="22500" windowHeight="18300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="1240" windowWidth="22500" windowHeight="18300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
   <si>
     <t>stand</t>
   </si>
@@ -449,6 +449,21 @@
   </si>
   <si>
     <t>S4A04574_20170607_042600</t>
+  </si>
+  <si>
+    <t>S4A04574_20170604_202600</t>
+  </si>
+  <si>
+    <t>S4A04574_20170605_042700</t>
+  </si>
+  <si>
+    <t>RTHU</t>
+  </si>
+  <si>
+    <t>S4A04574_20170605_202700</t>
+  </si>
+  <si>
+    <t>S4A04574_20170606_042700</t>
   </si>
 </sst>
 </file>
@@ -1005,20 +1020,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO38" sqref="H38:AO38"/>
+      <selection activeCell="AP36" sqref="H36:AP36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1131,19 +1146,22 @@
         <v>41</v>
       </c>
       <c r="AL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1256,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -1265,10 +1283,13 @@
         <v>1</v>
       </c>
       <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -1390,10 +1411,13 @@
         <v>1</v>
       </c>
       <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1506,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1515,10 +1539,13 @@
         <v>1</v>
       </c>
       <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1631,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -1640,10 +1667,13 @@
         <v>1</v>
       </c>
       <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1759,16 +1789,19 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>1</v>
       </c>
       <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1881,19 +1914,22 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2006,19 +2042,22 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2131,19 +2170,22 @@
         <v>1</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -2267,8 +2309,11 @@
       <c r="AO10">
         <v>1</v>
       </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2381,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2392,8 +2437,11 @@
       <c r="AO11">
         <v>1</v>
       </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2506,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2515,10 +2563,13 @@
         <v>1</v>
       </c>
       <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2631,19 +2682,22 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -2756,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -2765,10 +2819,13 @@
         <v>1</v>
       </c>
       <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2892,8 +2949,11 @@
       <c r="AO15">
         <v>1</v>
       </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3006,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3017,8 +3077,11 @@
       <c r="AO16">
         <v>1</v>
       </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -3131,19 +3194,22 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -3256,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3265,10 +3331,13 @@
         <v>1</v>
       </c>
       <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -3381,19 +3450,22 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -3506,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -3515,10 +3587,13 @@
         <v>1</v>
       </c>
       <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -3631,19 +3706,22 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -3756,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -3765,10 +3843,13 @@
         <v>1</v>
       </c>
       <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -3881,19 +3962,22 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -4006,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -4017,8 +4101,11 @@
       <c r="AO24">
         <v>1</v>
       </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -4131,19 +4218,22 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -4256,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -4267,8 +4357,11 @@
       <c r="AO26">
         <v>1</v>
       </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -4381,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -4390,10 +4483,13 @@
         <v>1</v>
       </c>
       <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -4506,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -4515,10 +4611,13 @@
         <v>1</v>
       </c>
       <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -4634,16 +4733,19 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <v>1</v>
       </c>
       <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -4756,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -4767,8 +4869,11 @@
       <c r="AO30">
         <v>1</v>
       </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -4881,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -4892,8 +4997,11 @@
       <c r="AO31">
         <v>1</v>
       </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5006,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -5015,35 +5123,530 @@
         <v>1</v>
       </c>
       <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="G33">
         <v>32</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
       <c r="G34">
         <v>33</v>
       </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
       <c r="G35">
         <v>34</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
       <c r="G36">
         <v>35</v>
       </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -5156,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -5165,6 +5768,9 @@
         <v>1</v>
       </c>
       <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
         <v>1</v>
       </c>
     </row>
